--- a/extra-wishlist.xlsx
+++ b/extra-wishlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE6FD9B-42AD-4A34-AF45-4C22ED9EA41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF268533-5BE2-4FDF-8A74-A377B44937F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="19155" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="23385" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Clara" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Image</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>https://www.lego.com/en-ch/product/tudor-corner-10350</t>
+  </si>
+  <si>
+    <t>https://images.hermanmiller.group/m/49e8a45a115fae9a/W-HM_AER_61524.png?trim=auto&amp;trim-sd=1&amp;blend-mode=darken&amp;blend=fafafa&amp;bg=fafafa&amp;auto=format&amp;w=1000&amp;q=70&amp;h=1000</t>
+  </si>
+  <si>
+    <t>Aeron Chair</t>
+  </si>
+  <si>
+    <t>https://store.hermanmiller.com/office-chairs-aeron/aeron-chair/100249179.html?lang=en_US&amp;sku=100249179</t>
   </si>
 </sst>
 </file>
@@ -551,7 +560,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +770,18 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <v>1700</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>

--- a/extra-wishlist.xlsx
+++ b/extra-wishlist.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF268533-5BE2-4FDF-8A74-A377B44937F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27563617-1D91-40B2-9F9E-E2E8FA20F5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="23385" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="2520" yWindow="1815" windowWidth="43200" windowHeight="17145" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Clara" sheetId="1" r:id="rId1"/>
+    <sheet name="Extra Wishlist" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clara!$A$1:$E$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Extra Wishlist'!$A$1:$E$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Image</t>
   </si>
@@ -180,6 +180,39 @@
   </si>
   <si>
     <t>https://store.hermanmiller.com/office-chairs-aeron/aeron-chair/100249179.html?lang=en_US&amp;sku=100249179</t>
+  </si>
+  <si>
+    <t>https://www.galaxus.ch/en/s8/product/deuter-waldfuchs-10-10-l-backpacks-42902191</t>
+  </si>
+  <si>
+    <t>https://www.galaxus.ch/en/s8/product/deuter-forest-fox-10-10-l-backpacks-42902192</t>
+  </si>
+  <si>
+    <t>Deuter Forest Fox 10</t>
+  </si>
+  <si>
+    <t>https://static01.galaxus.com/productimages/3/3/3/3/4/0/2/0/0/1/7/4/8/9/2/2/0/5/2/58cd5acc-8462-46b1-8934-2a09baf72ca7_cropped.jpg_720.avif</t>
+  </si>
+  <si>
+    <t>https://static01.galaxus.com/productimages/1/6/1/0/9/8/0/5/7/2/6/1/7/7/2/6/8/4/5/118d9d2b-617e-4c6c-ba5b-b3e0fac55598_cropped.jpg_720.avif</t>
+  </si>
+  <si>
+    <t>https://www.digitec.ch/en/s1/product/sigma-24-70mm-f28-dg-dn-ii-art-sony-e-full-size-lenses-45881601</t>
+  </si>
+  <si>
+    <t>Sigma 24-70mm f/2.8 DG DN II Art</t>
+  </si>
+  <si>
+    <t>https://static01.galaxus.com/productimages/3/4/1/4/6/9/1/6/1/2/1/6/6/2/2/1/8/4/9/682182dc-69c0-4397-b129-6fef5b7c1b49_cropped.jpg_2880.avif</t>
+  </si>
+  <si>
+    <t>Sigma 100-400mm f/5.0-6.3 DG DN OS, Sony E</t>
+  </si>
+  <si>
+    <t>https://www.digitec.ch/en/s1/product/sigma-100-400mm-f50-63-dg-dn-os-sony-e-sony-e-full-size-lenses-13366507</t>
+  </si>
+  <si>
+    <t>https://static01.galaxus.com/productimages/3/5/9/9/6/4/4/5/PPhoto_100_400_5_6.3_dgdn_c020_Lmt_horizontal_tripodsocket.jpg_720.avif</t>
   </si>
 </sst>
 </file>
@@ -557,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,33 +817,65 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>870</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E23" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D23">
-    <sortCondition ref="D2:D23"/>
+  <autoFilter ref="A1:E19" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D19">
+    <sortCondition ref="D2:D19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/extra-wishlist.xlsx
+++ b/extra-wishlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/folder comun/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27563617-1D91-40B2-9F9E-E2E8FA20F5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{27563617-1D91-40B2-9F9E-E2E8FA20F5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB22AF29-6CAB-4933-B9AC-5B6B730D10F0}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1815" windowWidth="43200" windowHeight="17145" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="1950" yWindow="720" windowWidth="29010" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Extra Wishlist" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Image</t>
   </si>
@@ -213,6 +213,15 @@
   </si>
   <si>
     <t>https://static01.galaxus.com/productimages/3/5/9/9/6/4/4/5/PPhoto_100_400_5_6.3_dgdn_c020_Lmt_horizontal_tripodsocket.jpg_720.avif</t>
+  </si>
+  <si>
+    <t>https://www.apple.com/ch-de/shop/buy-watch/apple-watch/42mm-gps-ros%C3%A9gold-aluminium-mandarine-sportarmband-sm</t>
+  </si>
+  <si>
+    <t>Apple Watch</t>
+  </si>
+  <si>
+    <t>https://store.storeimages.cdn-apple.com/1/as-images.apple.com/is/MDRY4ref_VW_34FR+watch-case-42-aluminum-rosegold-nc-s10_VW_34FR+watch-face-42-aluminum-rosegold-s10_VW_34FR?wid=5120&amp;hei=3280&amp;bgc=fafafa&amp;trim=1&amp;fmt=p-jpg&amp;qlt=80&amp;.v=aWR3eURSMEloeW8rRlJjeisrTUVuSjNqbENGcEFFTlJVaXJwL2VzdGxEM3hoaFEySTlrZSsrbEhqczIxajV3MzBnRnJNVU50TjZtbUN3ZjYvVksrL1FtTHNhRmRKQkE2OXJHRVEvRTFWdXRGd1ZOdUM2RkNJOUpIeklzU1JHbVNWNEM0ZHZzMzMzajJiOGZuamRiTE9rUVN3R3VxZWhYYXgwOHljYmZFMXBocmMyRTN3NCt6QkoxaUdRb0FBay9VYktGTHdENW9lYUFnak5pcy9ReEdDV1huc2RkMVJhUksxbWsxK1ZQMHVvWVdkR0c1QU9HSFhRTXZyMjRWUXMzUA</t>
   </si>
 </sst>
 </file>
@@ -590,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,6 +881,20 @@
         <v>870</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E19" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D19">

--- a/extra-wishlist.xlsx
+++ b/extra-wishlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/folder comun/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{27563617-1D91-40B2-9F9E-E2E8FA20F5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB22AF29-6CAB-4933-B9AC-5B6B730D10F0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A776792F-8D6D-4ABF-8368-9640FBCAC6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="720" windowWidth="29010" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="4680" yWindow="615" windowWidth="29010" windowHeight="23385" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Extra Wishlist" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>Image</t>
   </si>
@@ -222,6 +222,24 @@
   </si>
   <si>
     <t>https://store.storeimages.cdn-apple.com/1/as-images.apple.com/is/MDRY4ref_VW_34FR+watch-case-42-aluminum-rosegold-nc-s10_VW_34FR+watch-face-42-aluminum-rosegold-s10_VW_34FR?wid=5120&amp;hei=3280&amp;bgc=fafafa&amp;trim=1&amp;fmt=p-jpg&amp;qlt=80&amp;.v=aWR3eURSMEloeW8rRlJjeisrTUVuSjNqbENGcEFFTlJVaXJwL2VzdGxEM3hoaFEySTlrZSsrbEhqczIxajV3MzBnRnJNVU50TjZtbUN3ZjYvVksrL1FtTHNhRmRKQkE2OXJHRVEvRTFWdXRGd1ZOdUM2RkNJOUpIeklzU1JHbVNWNEM0ZHZzMzMzajJiOGZuamRiTE9rUVN3R3VxZWhYYXgwOHljYmZFMXBocmMyRTN3NCt6QkoxaUdRb0FBay9VYktGTHdENW9lYUFnak5pcy9ReEdDV1huc2RkMVJhUksxbWsxK1ZQMHVvWVdkR0c1QU9HSFhRTXZyMjRWUXMzUA</t>
+  </si>
+  <si>
+    <t>Sony FE 40mm f/2.5 G</t>
+  </si>
+  <si>
+    <t>https://static01.galaxus.com/productimages/1/9/9/3/2/3/5/8/4/3/6/8/0/4/6/0/0/8/2/01981e19-c81d-77c1-a3c2-f578d3601927_2880.avif</t>
+  </si>
+  <si>
+    <t>https://www.digitec.ch/en/s1/product/sony-fe-40mm-f25-g-sony-e-full-size-lenses-15382655</t>
+  </si>
+  <si>
+    <t>Sony FE 35mm f/1.4 GM</t>
+  </si>
+  <si>
+    <t>https://static01.galaxus.com/productimages/4/1/4/3/9/0/3/8/1%20Digitec_A-Mid%203.jpg_2880.avif</t>
+  </si>
+  <si>
+    <t>https://www.digitec.ch/en/s1/product/sony-fe-35mm-f14-gm-sony-e-full-size-lenses-14596684</t>
   </si>
 </sst>
 </file>
@@ -599,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,6 +913,34 @@
         <v>400</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22">
+        <v>1236</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E19" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D19">

--- a/extra-wishlist.xlsx
+++ b/extra-wishlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A776792F-8D6D-4ABF-8368-9640FBCAC6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B05395-9F9B-49FF-811B-A317F2978A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="615" windowWidth="29010" windowHeight="23385" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="12090" yWindow="3135" windowWidth="22950" windowHeight="18195" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Extra Wishlist" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>Image</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>https://www.digitec.ch/en/s1/product/sony-fe-35mm-f14-gm-sony-e-full-size-lenses-14596684</t>
+  </si>
+  <si>
+    <t>GAP</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -617,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,303 +654,345 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>1600</v>
+      <c r="E2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
       </c>
       <c r="D3">
-        <v>750</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>1200</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>3800</v>
+      <c r="E5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>700</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>540</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>250</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
       </c>
       <c r="D9">
-        <v>750</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10">
-        <v>330</v>
+      <c r="E10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>220</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="D12">
-        <v>240</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D13">
-        <v>160</v>
+        <v>870</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14">
-        <v>240</v>
+      <c r="E14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15">
         <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15">
-        <v>1700</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D16">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D18">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22">
-        <v>1236</v>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>1600</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>750</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>330</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28">
+        <v>220</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E19" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D19">
-    <sortCondition ref="D2:D19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:D28">
+    <sortCondition ref="D26:D28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/extra-wishlist.xlsx
+++ b/extra-wishlist.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Downloads/wishlist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B05395-9F9B-49FF-811B-A317F2978A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{B4B05395-9F9B-49FF-811B-A317F2978A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{152F7F1F-8A0F-4DEF-BB8B-0A7A4A89E215}"/>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="3135" windowWidth="22950" windowHeight="18195" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Extra Wishlist" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Extra Wishlist'!$A$1:$E$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Extra Wishlist'!$A$1:$E$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <t>Image</t>
   </si>
@@ -246,6 +246,24 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>https://www.digitec.ch/en/s1/product/voigtlaender-macro-apo-lanthar-65-mm-20-sony-e-full-size-lenses-11920971</t>
+  </si>
+  <si>
+    <t>https://static01.galaxus.com/productimages/3/6/3/5/6/6/1/2/3/3/5/1/3/0/2/1/2/5/2/bd6353d1-25fd-4bc4-82e4-ed2e79f06fa8.jpg_1440.avif</t>
+  </si>
+  <si>
+    <t>Voigtländer Macro Apo-Lanthar 65 mm / 2.0</t>
+  </si>
+  <si>
+    <t>https://static01.galaxus.com/productimages/3/0/3/3/9/0/6/8/5/8/9/6/2/4/4/5/1/0/5/f1875b8e-b92d-460b-a9cb-860a5fbcc399_cropped.jpg_2880.avif</t>
+  </si>
+  <si>
+    <t>https://www.digitec.ch/en/s1/product/elac-uni-fi-uf52-1-pair-hi-fi-home-cinema-speakers-20259295</t>
+  </si>
+  <si>
+    <t>ELAC Uni-Fi UF52 (1 Pair)</t>
   </si>
 </sst>
 </file>
@@ -623,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,30 +711,30 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>1160</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>1200</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -734,64 +752,64 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9">
-        <v>520</v>
+      <c r="E9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>67</v>
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>3800</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
       </c>
       <c r="D11">
-        <v>3800</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D12">
-        <v>1236</v>
+        <v>870</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
+        <v>71</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D13">
-        <v>870</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -848,41 +866,41 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>750</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
       </c>
       <c r="D20">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D21">
         <v>240</v>
@@ -890,83 +908,68 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D22">
-        <v>240</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23">
-        <v>1700</v>
+      <c r="E23" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>67</v>
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>750</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D25">
-        <v>1600</v>
-      </c>
-      <c r="E25" t="s">
-        <v>68</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>750</v>
-      </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>330</v>
+        <v>1600</v>
       </c>
       <c r="E27" t="s">
         <v>68</v>
@@ -974,27 +977,83 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" t="s">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="E28" t="s">
         <v>68</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>330</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>220</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>520</v>
+      </c>
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E19" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:D28">
-    <sortCondition ref="D26:D28"/>
+  <autoFilter ref="A1:E18" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:D30">
+    <sortCondition ref="D28:D30"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{500C5F17-CD73-4F5C-9DAB-95952E174299}"/>
+    <hyperlink ref="C25" r:id="rId2" xr:uid="{376E2B05-F6F5-4BD7-87DB-872DA36FAD68}"/>
+    <hyperlink ref="C24" r:id="rId3" xr:uid="{EF3D4946-6DF4-4D31-8897-7C887F831DBF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>